--- a/biology/Histoire de la zoologie et de la botanique/Andrew_Balfour/Andrew_Balfour.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andrew_Balfour/Andrew_Balfour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sir Andrew Balfour, né le 18 janvier 1630 et mort le 10 janvier 1694, est un botaniste, médecin et antiquaire écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la philosophie et l'arithmétique à l'université de St Andrews. Une fois diplômé, il se rend à Londres et devient en 1650 l'élève du médecin du roi John Wedderburn. Il part ensuite en France où il étudie à Paris et à l'université de Caen, où il rédige un mémoire intitulé De Venae Sectione in Dysenteria. Il rentre alors à Londres où il rencontre John Wilmot avec qui il voyage de la fin de 1661 jusqu’au fin de 1664 en France et en Italie.
 En 1667, Balfour s'installe à Saint Andrews où il exerce la médecine. Il a déjà amassé à cette époque une importante collection de curiosités baptisée par ses contemporains "Museaum Balfourianum". En 1670, il vient exercer la médecine à Édimbourg où il rencontre Robert Sibbald. Ensemble, ils implantent un jardin botanique près du Palais de Holyrood, qui devient le Jardin botanique royal d'Édimbourg.
